--- a/docs/9_要件定義技法ガイド/別紙：要件検証の観点一覧（業務要件定義）.xlsx
+++ b/docs/9_要件定義技法ガイド/別紙：要件検証の観点一覧（業務要件定義）.xlsx
@@ -7745,16 +7745,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="19"/>
   </si>
@@ -8461,6 +8451,9 @@
       <t>セイゴウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
   </si>
 </sst>
 </file>
@@ -10553,9 +10546,7 @@
       <c r="O31" s="37"/>
       <c r="P31" s="37"/>
       <c r="Q31" s="37"/>
-      <c r="R31" s="47" t="s">
-        <v>368</v>
-      </c>
+      <c r="R31" s="47"/>
       <c r="S31" s="37"/>
       <c r="T31" s="37"/>
       <c r="U31" s="37"/>
@@ -10828,12 +10819,12 @@
     <row r="39" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="37"/>
       <c r="B39" s="37" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
       <c r="E39" s="54" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
@@ -10848,7 +10839,7 @@
       <c r="P39" s="51"/>
       <c r="Q39" s="52"/>
       <c r="R39" s="52" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="S39" s="51"/>
       <c r="T39" s="37"/>
@@ -10867,7 +10858,11 @@
       <c r="AG39" s="37"/>
       <c r="AH39" s="37"/>
     </row>
-    <row r="40" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="40" t="s">
+        <v>392</v>
+      </c>
+    </row>
     <row r="41" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11345,7 +11340,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -11374,7 +11369,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="55" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
@@ -11468,7 +11463,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>5</v>
@@ -11477,10 +11472,10 @@
         <v>6</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K5" s="5"/>
     </row>
@@ -11528,7 +11523,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>5</v>
@@ -11555,7 +11550,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>5</v>
@@ -11567,7 +11562,7 @@
         <v>23</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K8" s="10"/>
     </row>
@@ -11582,7 +11577,7 @@
         <v>25</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>5</v>
@@ -11594,7 +11589,7 @@
         <v>26</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K9" s="10"/>
     </row>
@@ -11663,7 +11658,7 @@
         <v>37</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>5</v>
@@ -11887,7 +11882,7 @@
         <v>72</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="10" t="s">
@@ -11939,7 +11934,7 @@
         <v>78</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>5</v>
@@ -12016,7 +12011,7 @@
       <c r="B25" s="16"/>
       <c r="C25" s="15"/>
       <c r="D25" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>91</v>
@@ -12049,7 +12044,7 @@
         <v>95</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>5</v>
@@ -12175,7 +12170,7 @@
         <v>118</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K30" s="10"/>
     </row>
@@ -12203,7 +12198,7 @@
         <v>107</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J31" s="12" t="s">
         <v>123</v>
@@ -12261,7 +12256,7 @@
         <v>107</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J33" s="23" t="s">
         <v>132</v>
@@ -12288,7 +12283,7 @@
         <v>107</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J34" s="12" t="s">
         <v>135</v>
@@ -12468,7 +12463,7 @@
         <v>162</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>5</v>
@@ -12495,7 +12490,7 @@
         <v>165</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>5</v>
@@ -12742,7 +12737,7 @@
         <v>201</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G51" s="11" t="s">
         <v>5</v>
@@ -13877,7 +13872,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="8" scale="74" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="74" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>

--- a/docs/9_要件定義技法ガイド/別紙：要件検証の観点一覧（業務要件定義）.xlsx
+++ b/docs/9_要件定義技法ガイド/別紙：要件検証の観点一覧（業務要件定義）.xlsx
@@ -7745,6 +7745,16 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
+    <t>TIS株式会社</t>
+    <rPh sb="1" eb="3">
+      <t>カブシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="19"/>
   </si>
@@ -8451,9 +8461,6 @@
       <t>セイゴウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
   </si>
 </sst>
 </file>
@@ -10546,7 +10553,9 @@
       <c r="O31" s="37"/>
       <c r="P31" s="37"/>
       <c r="Q31" s="37"/>
-      <c r="R31" s="47"/>
+      <c r="R31" s="47" t="s">
+        <v>368</v>
+      </c>
       <c r="S31" s="37"/>
       <c r="T31" s="37"/>
       <c r="U31" s="37"/>
@@ -10819,12 +10828,12 @@
     <row r="39" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="37"/>
       <c r="B39" s="37" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
       <c r="E39" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
@@ -10839,7 +10848,7 @@
       <c r="P39" s="51"/>
       <c r="Q39" s="52"/>
       <c r="R39" s="52" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="S39" s="51"/>
       <c r="T39" s="37"/>
@@ -10858,11 +10867,7 @@
       <c r="AG39" s="37"/>
       <c r="AH39" s="37"/>
     </row>
-    <row r="40" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="40" t="s">
-        <v>392</v>
-      </c>
-    </row>
+    <row r="40" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11340,7 +11345,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -11369,7 +11374,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="55" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
@@ -11463,7 +11468,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>5</v>
@@ -11472,10 +11477,10 @@
         <v>6</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K5" s="5"/>
     </row>
@@ -11523,7 +11528,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>5</v>
@@ -11550,7 +11555,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>5</v>
@@ -11562,7 +11567,7 @@
         <v>23</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K8" s="10"/>
     </row>
@@ -11577,7 +11582,7 @@
         <v>25</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>5</v>
@@ -11589,7 +11594,7 @@
         <v>26</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K9" s="10"/>
     </row>
@@ -11658,7 +11663,7 @@
         <v>37</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>5</v>
@@ -11882,7 +11887,7 @@
         <v>72</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="10" t="s">
@@ -11934,7 +11939,7 @@
         <v>78</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>5</v>
@@ -12011,7 +12016,7 @@
       <c r="B25" s="16"/>
       <c r="C25" s="15"/>
       <c r="D25" s="11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>91</v>
@@ -12044,7 +12049,7 @@
         <v>95</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>5</v>
@@ -12170,7 +12175,7 @@
         <v>118</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K30" s="10"/>
     </row>
@@ -12198,7 +12203,7 @@
         <v>107</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="J31" s="12" t="s">
         <v>123</v>
@@ -12256,7 +12261,7 @@
         <v>107</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J33" s="23" t="s">
         <v>132</v>
@@ -12283,7 +12288,7 @@
         <v>107</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J34" s="12" t="s">
         <v>135</v>
@@ -12463,7 +12468,7 @@
         <v>162</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>5</v>
@@ -12490,7 +12495,7 @@
         <v>165</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>5</v>
@@ -12737,7 +12742,7 @@
         <v>201</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G51" s="11" t="s">
         <v>5</v>
@@ -13872,7 +13877,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="8" scale="74" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="74" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
